--- a/Tukey-Kramer.xlsx
+++ b/Tukey-Kramer.xlsx
@@ -3,12 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADE2A1A-9851-4A15-A2F0-7783CF1BB287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD62DA0-6864-4728-BF0F-34D582791172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20EFFE92-5281-C348-A571-105FD4335927}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{20EFFE92-5281-C348-A571-105FD4335927}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="3群" sheetId="4" r:id="rId1"/>
+    <sheet name="4群" sheetId="1" r:id="rId2"/>
+    <sheet name="5群" sheetId="2" r:id="rId3"/>
+    <sheet name="範囲表の補完" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -142,6 +145,81 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>E群</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D-E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分かる値A</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知りたい値</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分かる値B</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算A</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算B</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自由度</t>
+    <rPh sb="0" eb="3">
+      <t>ジユウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -149,8 +227,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -192,16 +270,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="MS UI Gothic"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="MS UI Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="6">
@@ -341,7 +417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,37 +457,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -420,10 +490,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -440,6 +510,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,7 +565,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97408E25-6E45-CBC5-7547-29E7667E1307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93003675-5B1B-4D9B-B8BC-19B8AA87BD3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -569,6 +654,440 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>値を決める。決定した値を左の優位水準欄に記入。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>群の数：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ν</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（総データ数－群数）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="el-GR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>14</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2018501" cy="728854"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B2DD40-2EFD-449B-ADA3-B5019D7D1271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="11591925"/>
+          <a:ext cx="2018501" cy="728854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF85FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>48-53</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>行の各値よりも、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>48-53</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>行の各値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の方が</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>大きければ、有意差がある。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3711272" cy="1153201"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97408E25-6E45-CBC5-7547-29E7667E1307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="10277475"/>
+          <a:ext cx="3711272" cy="1153201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF85FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>以下の条件で、ステューデント化した範囲表から</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>値を決める。決定した値を左の有意水準欄に記入。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
             <a:solidFill>
@@ -887,6 +1406,959 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3711272" cy="1153201"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBCBF696-763B-4023-8C0A-D93CBDD47A81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="10334625"/>
+          <a:ext cx="3711272" cy="1153201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF85FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>以下の条件で、ステューデント化した範囲表から</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>値を決める。決定した値を左の有意水準欄に記入。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>群の数：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ν</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（総データ数－群数）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="el-GR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2018501" cy="728854"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B37F1A5-3CA3-487C-A53B-3FFB5E190C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="11791950"/>
+          <a:ext cx="2018501" cy="728854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF85FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>48-53</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>行の各値よりも、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>48-53</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>行の各値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の方が</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>大きければ、有意差がある。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6320961" cy="1177117"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B31886A-F066-4DBE-925A-F69E90739E1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="247650"/>
+          <a:ext cx="6320961" cy="1177117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF85FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>スチューデント化された範囲の表に書かれていない自由度（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ν</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="el-GR" sz="1100" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の部分の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>値を算出する方法</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>例）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>有意水準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の表で，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>群</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>自由度（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ν</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="el-GR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>22 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のところの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>値を知りたいと仮定する。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>補間するために必要なのは，知りたい値の自由度に一番近い上下の「自由度」と「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="el-GR" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の値。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3.55</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>群で自由度：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>22</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の時の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>値となる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="UD デジタル 教科書体 N-B" panose="02020700000000000000" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1183,11 +2655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD362F6D-0DCD-FD46-B909-BD89046B5724}">
-  <dimension ref="B1:AD57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB1A9D4-079C-4470-8D9D-38E52639659B}">
+  <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1203,31 +2675,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
       <c r="T1"/>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
     </row>
     <row r="2" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -1242,34 +2714,32 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F2" s="31"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="32"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="30"/>
       <c r="T2"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="32"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="30"/>
     </row>
     <row r="3" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
@@ -1284,9 +2754,7 @@
       <c r="E3" s="4">
         <v>71</v>
       </c>
-      <c r="F3" s="4">
-        <v>22</v>
-      </c>
+      <c r="F3" s="22"/>
       <c r="J3" s="12" t="s">
         <v>18</v>
       </c>
@@ -1362,9 +2830,7 @@
       <c r="E4" s="4">
         <v>63</v>
       </c>
-      <c r="F4" s="4">
-        <v>26</v>
-      </c>
+      <c r="F4" s="22"/>
       <c r="J4" s="12">
         <v>1</v>
       </c>
@@ -1440,9 +2906,7 @@
       <c r="E5" s="4">
         <v>89</v>
       </c>
-      <c r="F5" s="4">
-        <v>21</v>
-      </c>
+      <c r="F5" s="22"/>
       <c r="J5" s="12">
         <v>2</v>
       </c>
@@ -1518,9 +2982,7 @@
       <c r="E6" s="4">
         <v>74</v>
       </c>
-      <c r="F6" s="4">
-        <v>42</v>
-      </c>
+      <c r="F6" s="22"/>
       <c r="J6" s="12">
         <v>3</v>
       </c>
@@ -1596,7 +3058,7 @@
       <c r="E7" s="4">
         <v>68</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="22"/>
       <c r="J7" s="12">
         <v>4</v>
       </c>
@@ -1670,7 +3132,7 @@
       <c r="E8" s="4">
         <v>77</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="22"/>
       <c r="J8" s="12">
         <v>5</v>
       </c>
@@ -1740,7 +3202,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="22"/>
       <c r="J9" s="12">
         <v>6</v>
       </c>
@@ -1810,7 +3272,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="22"/>
       <c r="J10" s="12">
         <v>7</v>
       </c>
@@ -1880,7 +3342,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="22"/>
       <c r="J11" s="12">
         <v>8</v>
       </c>
@@ -1950,7 +3412,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="22"/>
       <c r="J12" s="12">
         <v>9</v>
       </c>
@@ -2020,7 +3482,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="22"/>
       <c r="J13" s="12">
         <v>10</v>
       </c>
@@ -2090,7 +3552,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="22"/>
       <c r="J14" s="12">
         <v>11</v>
       </c>
@@ -2160,7 +3622,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="22"/>
       <c r="J15" s="12">
         <v>12</v>
       </c>
@@ -2230,7 +3692,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="22"/>
       <c r="J16" s="12">
         <v>13</v>
       </c>
@@ -2300,7 +3762,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="22"/>
       <c r="J17" s="12">
         <v>14</v>
       </c>
@@ -2370,7 +3832,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="22"/>
       <c r="J18" s="12">
         <v>15</v>
       </c>
@@ -2440,7 +3902,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="22"/>
       <c r="J19" s="12">
         <v>16</v>
       </c>
@@ -2510,7 +3972,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="22"/>
       <c r="J20" s="12">
         <v>17</v>
       </c>
@@ -2580,7 +4042,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="22"/>
       <c r="J21" s="12">
         <v>18</v>
       </c>
@@ -2650,7 +4112,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="22"/>
       <c r="J22" s="12">
         <v>19</v>
       </c>
@@ -2720,7 +4182,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="22"/>
       <c r="J23" s="12">
         <v>20</v>
       </c>
@@ -2790,7 +4252,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="22"/>
       <c r="J24" s="12">
         <v>24</v>
       </c>
@@ -2860,7 +4322,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="22"/>
       <c r="J25" s="12">
         <v>30</v>
       </c>
@@ -2930,7 +4392,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="22"/>
       <c r="J26" s="12">
         <v>40</v>
       </c>
@@ -3000,7 +4462,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="22"/>
       <c r="J27" s="12">
         <v>60</v>
       </c>
@@ -3070,7 +4532,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="22"/>
       <c r="J28" s="12">
         <v>120</v>
       </c>
@@ -3140,66 +4602,66 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="J29" s="25" t="s">
+      <c r="F29" s="22"/>
+      <c r="J29" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="24">
         <v>2.77</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="24">
         <v>3.31</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="24">
         <v>3.63</v>
       </c>
-      <c r="N29" s="26">
+      <c r="N29" s="24">
         <v>3.86</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O29" s="24">
         <v>4.03</v>
       </c>
-      <c r="P29" s="26">
+      <c r="P29" s="24">
         <v>4.17</v>
       </c>
-      <c r="Q29" s="26">
+      <c r="Q29" s="24">
         <v>4.29</v>
       </c>
-      <c r="R29" s="26">
+      <c r="R29" s="24">
         <v>4.3899999999999997</v>
       </c>
-      <c r="S29" s="26">
+      <c r="S29" s="24">
         <v>4.47</v>
       </c>
       <c r="T29"/>
-      <c r="U29" s="25" t="s">
+      <c r="U29" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="V29" s="26">
+      <c r="V29" s="24">
         <v>3.64</v>
       </c>
-      <c r="W29" s="26">
+      <c r="W29" s="24">
         <v>4.12</v>
       </c>
-      <c r="X29" s="26">
+      <c r="X29" s="24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Y29" s="26">
+      <c r="Y29" s="24">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Z29" s="26">
+      <c r="Z29" s="24">
         <v>4.76</v>
       </c>
-      <c r="AA29" s="26">
+      <c r="AA29" s="24">
         <v>4.88</v>
       </c>
-      <c r="AB29" s="26">
+      <c r="AB29" s="24">
         <v>4.99</v>
       </c>
-      <c r="AC29" s="26">
+      <c r="AC29" s="24">
         <v>5.08</v>
       </c>
-      <c r="AD29" s="26">
+      <c r="AD29" s="24">
         <v>5.16</v>
       </c>
     </row>
@@ -3210,28 +4672,28 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
     </row>
     <row r="31" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3">
@@ -3240,28 +4702,28 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
     </row>
     <row r="32" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3">
@@ -3270,28 +4732,28 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
     </row>
     <row r="33" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="3">
@@ -3300,28 +4762,28 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
     </row>
     <row r="34" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="3">
@@ -3330,28 +4792,28 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
     </row>
     <row r="35" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="3">
@@ -3360,28 +4822,28 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
     </row>
     <row r="36" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="3">
@@ -3390,28 +4852,28 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
     </row>
     <row r="37" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="3">
@@ -3420,28 +4882,28 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
     </row>
     <row r="38" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3">
@@ -3450,28 +4912,28 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
+      <c r="F38" s="22"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
     </row>
     <row r="39" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="3">
@@ -3480,28 +4942,28 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
     </row>
     <row r="40" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3">
@@ -3510,28 +4972,28 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
     </row>
     <row r="41" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3">
@@ -3540,28 +5002,28 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
     </row>
     <row r="42" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3">
@@ -3570,28 +5032,28 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="21"/>
+      <c r="F42" s="22"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
     </row>
     <row r="43" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="7" t="s">
@@ -3609,31 +5071,28 @@
         <f>AVERAGE(E3:E42)</f>
         <v>73.666666666666671</v>
       </c>
-      <c r="F43" s="8">
-        <f>AVERAGE(F3:F7)</f>
-        <v>27.75</v>
-      </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
-      <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
+      <c r="F43" s="32"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
     </row>
     <row r="44" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="7" t="s">
@@ -3651,101 +5110,98 @@
         <f>VAR(E3:E42)</f>
         <v>79.866666666666418</v>
       </c>
-      <c r="F44" s="8">
-        <f>VAR(F3:F7)</f>
-        <v>94.916666666666671</v>
-      </c>
-      <c r="G44" s="6">
-        <f>AVERAGE(C44:F44)</f>
-        <v>217.78749999999991</v>
-      </c>
-      <c r="J44" s="20"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="21"/>
+      <c r="F44" s="6">
+        <f>AVERAGE(C44:E44)</f>
+        <v>258.74444444444435</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
     </row>
     <row r="45" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="25">
         <f>COUNT(C3:C42)</f>
         <v>5</v>
       </c>
-      <c r="D45" s="27">
-        <f t="shared" ref="D45:F45" si="0">COUNT(D3:D42)</f>
+      <c r="D45" s="25">
+        <f t="shared" ref="D45:E45" si="0">COUNT(D3:D42)</f>
         <v>6</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F45" s="27">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="F45" s="34">
+        <f>SUM(A45:E45)</f>
+        <v>17</v>
       </c>
       <c r="G45" s="6"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="21"/>
-      <c r="AD45" s="21"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
     </row>
     <row r="46" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J46" s="20"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
-      <c r="AD46" s="21"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
     </row>
     <row r="47" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="9" t="s">
@@ -3757,30 +5213,30 @@
       <c r="E47" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="17">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="J47" s="20"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-      <c r="AA47" s="21"/>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21"/>
+      <c r="F47" s="16">
+        <v>3.7</v>
+      </c>
+      <c r="J47" s="18"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
     </row>
     <row r="48" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
@@ -3790,293 +5246,191 @@
         <f>ABS(C43-D43)</f>
         <v>1.0666666666666629</v>
       </c>
-      <c r="D48" s="18">
-        <f>F47*SQRT(G44*(1/C45+1/D45))</f>
-        <v>35.923466919271576</v>
-      </c>
-      <c r="J48" s="20"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="21"/>
-      <c r="AB48" s="21"/>
-      <c r="AC48" s="21"/>
-      <c r="AD48" s="21"/>
+      <c r="D48" s="17">
+        <f>F47*SQRT(F44*(1/C45+1/D45))</f>
+        <v>36.039018618199954</v>
+      </c>
+      <c r="J48" s="18"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
     </row>
     <row r="49" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="33">
         <f>ABS(C43-E43)</f>
         <v>39.06666666666667</v>
       </c>
-      <c r="D49" s="18">
-        <f>F47*SQRT(G44*(1/C45+1/E45))</f>
-        <v>35.923466919271576</v>
-      </c>
-      <c r="J49" s="20"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
-      <c r="AB49" s="21"/>
-      <c r="AC49" s="21"/>
-      <c r="AD49" s="21"/>
+      <c r="D49" s="17">
+        <f>F47*SQRT(F44*(1/C45+1/E45))</f>
+        <v>36.039018618199954</v>
+      </c>
+      <c r="J49" s="18"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19"/>
     </row>
     <row r="50" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50" s="5">
-        <f>ABS(C43-F43)</f>
-        <v>6.8500000000000014</v>
-      </c>
-      <c r="D50" s="18">
-        <f>F47*SQRT(G44*(1/C45+1/F45))</f>
-        <v>39.796857938158873</v>
-      </c>
-      <c r="J50" s="20"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
-      <c r="AB50" s="21"/>
-      <c r="AC50" s="21"/>
-      <c r="AD50" s="21"/>
-    </row>
-    <row r="51" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="19">
         <f>ABS(D43-E43)</f>
         <v>38.000000000000007</v>
       </c>
-      <c r="D51" s="18">
-        <f>F47*SQRT(G44*(1/D45+1/E45))</f>
-        <v>34.251681783527061</v>
-      </c>
-      <c r="J51" s="20"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="21"/>
-      <c r="AB51" s="21"/>
-      <c r="AC51" s="21"/>
-      <c r="AD51" s="21"/>
+      <c r="D50" s="17">
+        <f>F47*SQRT(F44*(1/D45+1/E45))</f>
+        <v>34.361856005579035</v>
+      </c>
+      <c r="J50" s="18"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+    </row>
+    <row r="51" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J51" s="18"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
     </row>
     <row r="52" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="5">
-        <f>ABS(D43-F43)</f>
-        <v>7.9166666666666643</v>
-      </c>
-      <c r="D52" s="18">
-        <f>F47*SQRT(G44*(1/D45+1/F45))</f>
-        <v>38.294544405828866</v>
-      </c>
-      <c r="J52" s="20"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="21"/>
-      <c r="AB52" s="21"/>
-      <c r="AC52" s="21"/>
-      <c r="AD52" s="21"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
     </row>
     <row r="53" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="16">
-        <f>ABS(E43-F43)</f>
-        <v>45.916666666666671</v>
-      </c>
-      <c r="D53" s="18">
-        <f>F47*SQRT(G44*(1/E45+1/F45))</f>
-        <v>38.294544405828866</v>
-      </c>
-      <c r="J53" s="20"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="21"/>
-      <c r="AB53" s="21"/>
-      <c r="AC53" s="21"/>
-      <c r="AD53" s="21"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="22"/>
+      <c r="AD53" s="22"/>
     </row>
     <row r="54" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J54" s="20"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="21"/>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="21"/>
-      <c r="AD54" s="21"/>
-    </row>
-    <row r="55" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J55" s="20"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
-      <c r="AA55" s="21"/>
-      <c r="AB55" s="21"/>
-      <c r="AC55" s="21"/>
-      <c r="AD55" s="21"/>
-    </row>
-    <row r="56" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="24"/>
-      <c r="AA56" s="24"/>
-      <c r="AB56" s="24"/>
-      <c r="AC56" s="24"/>
-      <c r="AD56" s="24"/>
-    </row>
-    <row r="57" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="24"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-      <c r="X57" s="24"/>
-      <c r="Y57" s="24"/>
-      <c r="Z57" s="24"/>
-      <c r="AA57" s="24"/>
-      <c r="AB57" s="24"/>
-      <c r="AC57" s="24"/>
-      <c r="AD57" s="24"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="22"/>
+      <c r="X54" s="22"/>
+      <c r="Y54" s="22"/>
+      <c r="Z54" s="22"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="22"/>
+      <c r="AC54" s="22"/>
+      <c r="AD54" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4089,4 +5443,6062 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD362F6D-0DCD-FD46-B909-BD89046B5724}">
+  <dimension ref="B1:AD57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="2" customWidth="1"/>
+    <col min="3" max="9" width="7" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="7" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="30" width="7" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="10.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1"/>
+      <c r="U1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+    </row>
+    <row r="2" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="30"/>
+      <c r="T2"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="30"/>
+    </row>
+    <row r="3" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4">
+        <v>71</v>
+      </c>
+      <c r="F3" s="4">
+        <v>22</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12">
+        <v>3</v>
+      </c>
+      <c r="M3" s="12">
+        <v>4</v>
+      </c>
+      <c r="N3" s="12">
+        <v>5</v>
+      </c>
+      <c r="O3" s="12">
+        <v>6</v>
+      </c>
+      <c r="P3" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>8</v>
+      </c>
+      <c r="R3" s="12">
+        <v>9</v>
+      </c>
+      <c r="S3" s="12">
+        <v>10</v>
+      </c>
+      <c r="T3"/>
+      <c r="U3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="12">
+        <v>2</v>
+      </c>
+      <c r="W3" s="12">
+        <v>3</v>
+      </c>
+      <c r="X3" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4">
+        <v>47</v>
+      </c>
+      <c r="E4" s="4">
+        <v>63</v>
+      </c>
+      <c r="F4" s="4">
+        <v>26</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13">
+        <v>17.97</v>
+      </c>
+      <c r="L4" s="13">
+        <v>26.98</v>
+      </c>
+      <c r="M4" s="13">
+        <v>32.82</v>
+      </c>
+      <c r="N4" s="13">
+        <v>37.08</v>
+      </c>
+      <c r="O4" s="13">
+        <v>40.409999999999997</v>
+      </c>
+      <c r="P4" s="13">
+        <v>43.12</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>45.4</v>
+      </c>
+      <c r="R4" s="13">
+        <v>47.36</v>
+      </c>
+      <c r="S4" s="13">
+        <v>49.07</v>
+      </c>
+      <c r="T4"/>
+      <c r="U4" s="12">
+        <v>1</v>
+      </c>
+      <c r="V4" s="13">
+        <v>90.03</v>
+      </c>
+      <c r="W4" s="13">
+        <v>135</v>
+      </c>
+      <c r="X4" s="13">
+        <v>164.3</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>185.6</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>202.2</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>215.8</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>227.2</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>237</v>
+      </c>
+      <c r="AD4" s="13">
+        <v>245.6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4">
+        <v>72</v>
+      </c>
+      <c r="E5" s="4">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4">
+        <v>21</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2</v>
+      </c>
+      <c r="K5" s="13">
+        <v>6.08</v>
+      </c>
+      <c r="L5" s="13">
+        <v>8.33</v>
+      </c>
+      <c r="M5" s="13">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N5" s="13">
+        <v>10.88</v>
+      </c>
+      <c r="O5" s="13">
+        <v>11.74</v>
+      </c>
+      <c r="P5" s="13">
+        <v>12.44</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>13.03</v>
+      </c>
+      <c r="R5" s="13">
+        <v>13.54</v>
+      </c>
+      <c r="S5" s="13">
+        <v>13.99</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5" s="12">
+        <v>2</v>
+      </c>
+      <c r="V5" s="13">
+        <v>14.04</v>
+      </c>
+      <c r="W5" s="13">
+        <v>19.02</v>
+      </c>
+      <c r="X5" s="13">
+        <v>22.29</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>24.72</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>26.63</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>28.2</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>29.53</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>30.68</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>31.69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>48</v>
+      </c>
+      <c r="D6" s="4">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4">
+        <v>74</v>
+      </c>
+      <c r="F6" s="4">
+        <v>42</v>
+      </c>
+      <c r="J6" s="12">
+        <v>3</v>
+      </c>
+      <c r="K6" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="L6" s="13">
+        <v>5.91</v>
+      </c>
+      <c r="M6" s="13">
+        <v>6.82</v>
+      </c>
+      <c r="N6" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="O6" s="13">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="P6" s="13">
+        <v>8.48</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>8.85</v>
+      </c>
+      <c r="R6" s="13">
+        <v>9.18</v>
+      </c>
+      <c r="S6" s="13">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6" s="12">
+        <v>3</v>
+      </c>
+      <c r="V6" s="13">
+        <v>8.26</v>
+      </c>
+      <c r="W6" s="13">
+        <v>10.62</v>
+      </c>
+      <c r="X6" s="13">
+        <v>12.17</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>13.33</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>14.24</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>15.64</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>16.2</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>16.690000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4">
+        <v>68</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="J7" s="12">
+        <v>4</v>
+      </c>
+      <c r="K7" s="13">
+        <v>3.93</v>
+      </c>
+      <c r="L7" s="13">
+        <v>5.04</v>
+      </c>
+      <c r="M7" s="13">
+        <v>5.76</v>
+      </c>
+      <c r="N7" s="13">
+        <v>6.29</v>
+      </c>
+      <c r="O7" s="13">
+        <v>6.71</v>
+      </c>
+      <c r="P7" s="13">
+        <v>7.05</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>7.35</v>
+      </c>
+      <c r="R7" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="S7" s="13">
+        <v>7.83</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7" s="12">
+        <v>4</v>
+      </c>
+      <c r="V7" s="13">
+        <v>6.51</v>
+      </c>
+      <c r="W7" s="13">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="X7" s="13">
+        <v>9.17</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>10.58</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>11.1</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>11.55</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>11.93</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4">
+        <v>77</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="J8" s="12">
+        <v>5</v>
+      </c>
+      <c r="K8" s="13">
+        <v>3.64</v>
+      </c>
+      <c r="L8" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M8" s="13">
+        <v>5.22</v>
+      </c>
+      <c r="N8" s="13">
+        <v>5.67</v>
+      </c>
+      <c r="O8" s="13">
+        <v>6.03</v>
+      </c>
+      <c r="P8" s="13">
+        <v>6.33</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>6.58</v>
+      </c>
+      <c r="R8" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="S8" s="13">
+        <v>6.99</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8" s="12">
+        <v>5</v>
+      </c>
+      <c r="V8" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="W8" s="13">
+        <v>6.98</v>
+      </c>
+      <c r="X8" s="13">
+        <v>7.8</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>8.42</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>8.91</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>9.32</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>9.67</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="J9" s="12">
+        <v>6</v>
+      </c>
+      <c r="K9" s="13">
+        <v>3.46</v>
+      </c>
+      <c r="L9" s="13">
+        <v>4.34</v>
+      </c>
+      <c r="M9" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N9" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="O9" s="13">
+        <v>5.63</v>
+      </c>
+      <c r="P9" s="13">
+        <v>5.9</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>6.12</v>
+      </c>
+      <c r="R9" s="13">
+        <v>6.32</v>
+      </c>
+      <c r="S9" s="13">
+        <v>6.49</v>
+      </c>
+      <c r="T9"/>
+      <c r="U9" s="12">
+        <v>6</v>
+      </c>
+      <c r="V9" s="13">
+        <v>5.24</v>
+      </c>
+      <c r="W9" s="13">
+        <v>6.33</v>
+      </c>
+      <c r="X9" s="13">
+        <v>7.03</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>7.56</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>7.97</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>8.32</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>8.61</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="J10" s="12">
+        <v>7</v>
+      </c>
+      <c r="K10" s="13">
+        <v>3.34</v>
+      </c>
+      <c r="L10" s="13">
+        <v>4.16</v>
+      </c>
+      <c r="M10" s="13">
+        <v>4.68</v>
+      </c>
+      <c r="N10" s="13">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="O10" s="13">
+        <v>5.36</v>
+      </c>
+      <c r="P10" s="13">
+        <v>5.61</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>5.82</v>
+      </c>
+      <c r="R10" s="13">
+        <v>6</v>
+      </c>
+      <c r="S10" s="13">
+        <v>6.16</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10" s="12">
+        <v>7</v>
+      </c>
+      <c r="V10" s="13">
+        <v>4.95</v>
+      </c>
+      <c r="W10" s="13">
+        <v>5.92</v>
+      </c>
+      <c r="X10" s="13">
+        <v>6.54</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>7.01</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>7.37</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>7.68</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>7.94</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>8.17</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>8.3699999999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="J11" s="12">
+        <v>8</v>
+      </c>
+      <c r="K11" s="13">
+        <v>3.26</v>
+      </c>
+      <c r="L11" s="13">
+        <v>4.04</v>
+      </c>
+      <c r="M11" s="13">
+        <v>4.53</v>
+      </c>
+      <c r="N11" s="13">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="O11" s="13">
+        <v>5.17</v>
+      </c>
+      <c r="P11" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="R11" s="13">
+        <v>5.77</v>
+      </c>
+      <c r="S11" s="13">
+        <v>5.92</v>
+      </c>
+      <c r="T11"/>
+      <c r="U11" s="12">
+        <v>8</v>
+      </c>
+      <c r="V11" s="13">
+        <v>4.75</v>
+      </c>
+      <c r="W11" s="13">
+        <v>5.64</v>
+      </c>
+      <c r="X11" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>6.62</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>6.96</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>7.24</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>7.47</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>7.68</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="J12" s="12">
+        <v>9</v>
+      </c>
+      <c r="K12" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="L12" s="13">
+        <v>3.95</v>
+      </c>
+      <c r="M12" s="13">
+        <v>4.41</v>
+      </c>
+      <c r="N12" s="13">
+        <v>4.76</v>
+      </c>
+      <c r="O12" s="13">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="P12" s="13">
+        <v>5.24</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>5.43</v>
+      </c>
+      <c r="R12" s="13">
+        <v>5.59</v>
+      </c>
+      <c r="S12" s="13">
+        <v>5.74</v>
+      </c>
+      <c r="T12"/>
+      <c r="U12" s="12">
+        <v>9</v>
+      </c>
+      <c r="V12" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W12" s="13">
+        <v>5.43</v>
+      </c>
+      <c r="X12" s="13">
+        <v>5.96</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>6.35</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>6.91</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>7.13</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>7.33</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="J13" s="12">
+        <v>10</v>
+      </c>
+      <c r="K13" s="13">
+        <v>3.15</v>
+      </c>
+      <c r="L13" s="13">
+        <v>3.88</v>
+      </c>
+      <c r="M13" s="13">
+        <v>4.33</v>
+      </c>
+      <c r="N13" s="13">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="O13" s="13">
+        <v>4.91</v>
+      </c>
+      <c r="P13" s="13">
+        <v>5.12</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="R13" s="13">
+        <v>5.46</v>
+      </c>
+      <c r="S13" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="T13"/>
+      <c r="U13" s="12">
+        <v>10</v>
+      </c>
+      <c r="V13" s="13">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="W13" s="13">
+        <v>5.27</v>
+      </c>
+      <c r="X13" s="13">
+        <v>5.77</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>6.14</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>6.43</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>6.67</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>6.87</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>7.05</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="J14" s="12">
+        <v>11</v>
+      </c>
+      <c r="K14" s="13">
+        <v>3.11</v>
+      </c>
+      <c r="L14" s="13">
+        <v>3.82</v>
+      </c>
+      <c r="M14" s="13">
+        <v>4.26</v>
+      </c>
+      <c r="N14" s="13">
+        <v>4.57</v>
+      </c>
+      <c r="O14" s="13">
+        <v>4.82</v>
+      </c>
+      <c r="P14" s="13">
+        <v>5.03</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="R14" s="13">
+        <v>5.35</v>
+      </c>
+      <c r="S14" s="13">
+        <v>5.49</v>
+      </c>
+      <c r="T14"/>
+      <c r="U14" s="12">
+        <v>11</v>
+      </c>
+      <c r="V14" s="13">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="W14" s="13">
+        <v>5.15</v>
+      </c>
+      <c r="X14" s="13">
+        <v>5.62</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>5.97</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>6.25</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>6.48</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>6.67</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>6.84</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="J15" s="12">
+        <v>12</v>
+      </c>
+      <c r="K15" s="13">
+        <v>3.08</v>
+      </c>
+      <c r="L15" s="13">
+        <v>3.77</v>
+      </c>
+      <c r="M15" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="N15" s="13">
+        <v>4.51</v>
+      </c>
+      <c r="O15" s="13">
+        <v>4.75</v>
+      </c>
+      <c r="P15" s="13">
+        <v>4.95</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>5.12</v>
+      </c>
+      <c r="R15" s="13">
+        <v>5.27</v>
+      </c>
+      <c r="S15" s="13">
+        <v>5.39</v>
+      </c>
+      <c r="T15"/>
+      <c r="U15" s="12">
+        <v>12</v>
+      </c>
+      <c r="V15" s="13">
+        <v>4.32</v>
+      </c>
+      <c r="W15" s="13">
+        <v>5.05</v>
+      </c>
+      <c r="X15" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>5.84</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>6.32</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>6.51</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>6.67</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="J16" s="12">
+        <v>13</v>
+      </c>
+      <c r="K16" s="13">
+        <v>3.06</v>
+      </c>
+      <c r="L16" s="13">
+        <v>3.73</v>
+      </c>
+      <c r="M16" s="13">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N16" s="13">
+        <v>4.45</v>
+      </c>
+      <c r="O16" s="13">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="P16" s="13">
+        <v>4.88</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>5.05</v>
+      </c>
+      <c r="R16" s="13">
+        <v>5.19</v>
+      </c>
+      <c r="S16" s="13">
+        <v>5.32</v>
+      </c>
+      <c r="T16" s="14"/>
+      <c r="U16" s="12">
+        <v>13</v>
+      </c>
+      <c r="V16" s="13">
+        <v>4.26</v>
+      </c>
+      <c r="W16" s="13">
+        <v>4.96</v>
+      </c>
+      <c r="X16" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>5.73</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>5.98</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>6.19</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>6.37</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>6.53</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="J17" s="12">
+        <v>14</v>
+      </c>
+      <c r="K17" s="13">
+        <v>3.03</v>
+      </c>
+      <c r="L17" s="13">
+        <v>3.7</v>
+      </c>
+      <c r="M17" s="13">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="N17" s="13">
+        <v>4.41</v>
+      </c>
+      <c r="O17" s="13">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="P17" s="13">
+        <v>4.83</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>4.99</v>
+      </c>
+      <c r="R17" s="13">
+        <v>5.13</v>
+      </c>
+      <c r="S17" s="13">
+        <v>5.25</v>
+      </c>
+      <c r="T17" s="14"/>
+      <c r="U17" s="12">
+        <v>14</v>
+      </c>
+      <c r="V17" s="13">
+        <v>4.21</v>
+      </c>
+      <c r="W17" s="13">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="X17" s="13">
+        <v>5.32</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>5.63</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>5.88</v>
+      </c>
+      <c r="AA17" s="13">
+        <v>6.08</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>6.26</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>6.41</v>
+      </c>
+      <c r="AD17" s="13">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="J18" s="12">
+        <v>15</v>
+      </c>
+      <c r="K18" s="13">
+        <v>3.01</v>
+      </c>
+      <c r="L18" s="13">
+        <v>3.67</v>
+      </c>
+      <c r="M18" s="13">
+        <v>4.08</v>
+      </c>
+      <c r="N18" s="13">
+        <v>4.37</v>
+      </c>
+      <c r="O18" s="13">
+        <v>4.59</v>
+      </c>
+      <c r="P18" s="13">
+        <v>4.78</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="R18" s="13">
+        <v>5.08</v>
+      </c>
+      <c r="S18" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="T18" s="14"/>
+      <c r="U18" s="12">
+        <v>15</v>
+      </c>
+      <c r="V18" s="13">
+        <v>4.17</v>
+      </c>
+      <c r="W18" s="13">
+        <v>4.84</v>
+      </c>
+      <c r="X18" s="13">
+        <v>5.25</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>5.56</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>5.99</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>6.16</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>6.31</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="J19" s="12">
+        <v>16</v>
+      </c>
+      <c r="K19" s="13">
+        <v>3</v>
+      </c>
+      <c r="L19" s="13">
+        <v>3.65</v>
+      </c>
+      <c r="M19" s="13">
+        <v>4.05</v>
+      </c>
+      <c r="N19" s="13">
+        <v>4.33</v>
+      </c>
+      <c r="O19" s="13">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="P19" s="13">
+        <v>4.74</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R19" s="13">
+        <v>5.03</v>
+      </c>
+      <c r="S19" s="13">
+        <v>5.15</v>
+      </c>
+      <c r="T19" s="14"/>
+      <c r="U19" s="12">
+        <v>16</v>
+      </c>
+      <c r="V19" s="13">
+        <v>4.13</v>
+      </c>
+      <c r="W19" s="13">
+        <v>4.79</v>
+      </c>
+      <c r="X19" s="13">
+        <v>5.19</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>5.49</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>5.72</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>5.92</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>6.08</v>
+      </c>
+      <c r="AC19" s="13">
+        <v>6.22</v>
+      </c>
+      <c r="AD19" s="13">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="J20" s="12">
+        <v>17</v>
+      </c>
+      <c r="K20" s="13">
+        <v>2.98</v>
+      </c>
+      <c r="L20" s="13">
+        <v>3.63</v>
+      </c>
+      <c r="M20" s="13">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="N20" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="O20" s="13">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="P20" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="R20" s="13">
+        <v>4.99</v>
+      </c>
+      <c r="S20" s="13">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="T20" s="14"/>
+      <c r="U20" s="12">
+        <v>17</v>
+      </c>
+      <c r="V20" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W20" s="13">
+        <v>4.74</v>
+      </c>
+      <c r="X20" s="13">
+        <v>5.14</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>5.43</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>5.66</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>5.85</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>6.01</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>6.15</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="J21" s="12">
+        <v>18</v>
+      </c>
+      <c r="K21" s="13">
+        <v>2.97</v>
+      </c>
+      <c r="L21" s="13">
+        <v>3.61</v>
+      </c>
+      <c r="M21" s="13">
+        <v>4</v>
+      </c>
+      <c r="N21" s="13">
+        <v>4.28</v>
+      </c>
+      <c r="O21" s="13">
+        <v>4.49</v>
+      </c>
+      <c r="P21" s="13">
+        <v>4.67</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>4.82</v>
+      </c>
+      <c r="R21" s="13">
+        <v>4.96</v>
+      </c>
+      <c r="S21" s="13">
+        <v>5.07</v>
+      </c>
+      <c r="T21" s="14"/>
+      <c r="U21" s="12">
+        <v>18</v>
+      </c>
+      <c r="V21" s="13">
+        <v>4.07</v>
+      </c>
+      <c r="W21" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="X21" s="13">
+        <v>5.09</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>5.38</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>5.79</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>5.94</v>
+      </c>
+      <c r="AC21" s="13">
+        <v>6.08</v>
+      </c>
+      <c r="AD21" s="13">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="J22" s="12">
+        <v>19</v>
+      </c>
+      <c r="K22" s="13">
+        <v>2.96</v>
+      </c>
+      <c r="L22" s="13">
+        <v>3.59</v>
+      </c>
+      <c r="M22" s="13">
+        <v>3.98</v>
+      </c>
+      <c r="N22" s="13">
+        <v>4.25</v>
+      </c>
+      <c r="O22" s="13">
+        <v>4.47</v>
+      </c>
+      <c r="P22" s="13">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>4.79</v>
+      </c>
+      <c r="R22" s="13">
+        <v>4.92</v>
+      </c>
+      <c r="S22" s="13">
+        <v>5.04</v>
+      </c>
+      <c r="T22"/>
+      <c r="U22" s="12">
+        <v>19</v>
+      </c>
+      <c r="V22" s="13">
+        <v>4.05</v>
+      </c>
+      <c r="W22" s="13">
+        <v>4.67</v>
+      </c>
+      <c r="X22" s="13">
+        <v>5.05</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>5.33</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>5.55</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>5.73</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>5.89</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>6.02</v>
+      </c>
+      <c r="AD22" s="13">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="J23" s="12">
+        <v>20</v>
+      </c>
+      <c r="K23" s="13">
+        <v>2.95</v>
+      </c>
+      <c r="L23" s="13">
+        <v>3.58</v>
+      </c>
+      <c r="M23" s="13">
+        <v>3.96</v>
+      </c>
+      <c r="N23" s="13">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="O23" s="13">
+        <v>4.45</v>
+      </c>
+      <c r="P23" s="13">
+        <v>4.62</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="R23" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S23" s="13">
+        <v>5.01</v>
+      </c>
+      <c r="T23"/>
+      <c r="U23" s="12">
+        <v>20</v>
+      </c>
+      <c r="V23" s="13">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="W23" s="13">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="X23" s="13">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>5.29</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>5.51</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>5.69</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>5.84</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>5.97</v>
+      </c>
+      <c r="AD23" s="13">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="3">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="J24" s="12">
+        <v>24</v>
+      </c>
+      <c r="K24" s="13">
+        <v>2.92</v>
+      </c>
+      <c r="L24" s="13">
+        <v>3.53</v>
+      </c>
+      <c r="M24" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="N24" s="13">
+        <v>4.17</v>
+      </c>
+      <c r="O24" s="13">
+        <v>4.37</v>
+      </c>
+      <c r="P24" s="13">
+        <v>4.54</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>4.68</v>
+      </c>
+      <c r="R24" s="13">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="S24" s="13">
+        <v>4.92</v>
+      </c>
+      <c r="T24"/>
+      <c r="U24" s="12">
+        <v>24</v>
+      </c>
+      <c r="V24" s="13">
+        <v>3.96</v>
+      </c>
+      <c r="W24" s="13">
+        <v>4.55</v>
+      </c>
+      <c r="X24" s="13">
+        <v>4.91</v>
+      </c>
+      <c r="Y24" s="13">
+        <v>5.17</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>5.37</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>5.54</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>5.69</v>
+      </c>
+      <c r="AC24" s="13">
+        <v>5.81</v>
+      </c>
+      <c r="AD24" s="13">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="J25" s="12">
+        <v>30</v>
+      </c>
+      <c r="K25" s="13">
+        <v>2.89</v>
+      </c>
+      <c r="L25" s="13">
+        <v>3.49</v>
+      </c>
+      <c r="M25" s="13">
+        <v>3.85</v>
+      </c>
+      <c r="N25" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O25" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="P25" s="13">
+        <v>4.46</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R25" s="13">
+        <v>4.72</v>
+      </c>
+      <c r="S25" s="13">
+        <v>4.82</v>
+      </c>
+      <c r="T25"/>
+      <c r="U25" s="12">
+        <v>30</v>
+      </c>
+      <c r="V25" s="13">
+        <v>3.89</v>
+      </c>
+      <c r="W25" s="13">
+        <v>4.45</v>
+      </c>
+      <c r="X25" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>5.05</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>5.24</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>5.54</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>5.65</v>
+      </c>
+      <c r="AD25" s="13">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="3">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="J26" s="12">
+        <v>40</v>
+      </c>
+      <c r="K26" s="13">
+        <v>2.86</v>
+      </c>
+      <c r="L26" s="13">
+        <v>3.44</v>
+      </c>
+      <c r="M26" s="13">
+        <v>3.79</v>
+      </c>
+      <c r="N26" s="13">
+        <v>4.04</v>
+      </c>
+      <c r="O26" s="13">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="P26" s="13">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="R26" s="13">
+        <v>4.63</v>
+      </c>
+      <c r="S26" s="13">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="T26"/>
+      <c r="U26" s="12">
+        <v>40</v>
+      </c>
+      <c r="V26" s="13">
+        <v>3.82</v>
+      </c>
+      <c r="W26" s="13">
+        <v>4.37</v>
+      </c>
+      <c r="X26" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>4.93</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>5.26</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>5.39</v>
+      </c>
+      <c r="AC26" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AD26" s="13">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="3">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="J27" s="12">
+        <v>60</v>
+      </c>
+      <c r="K27" s="13">
+        <v>2.83</v>
+      </c>
+      <c r="L27" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="M27" s="13">
+        <v>3.74</v>
+      </c>
+      <c r="N27" s="13">
+        <v>3.98</v>
+      </c>
+      <c r="O27" s="13">
+        <v>4.16</v>
+      </c>
+      <c r="P27" s="13">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="R27" s="13">
+        <v>4.55</v>
+      </c>
+      <c r="S27" s="13">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="T27"/>
+      <c r="U27" s="12">
+        <v>60</v>
+      </c>
+      <c r="V27" s="13">
+        <v>3.76</v>
+      </c>
+      <c r="W27" s="13">
+        <v>4.28</v>
+      </c>
+      <c r="X27" s="13">
+        <v>4.59</v>
+      </c>
+      <c r="Y27" s="13">
+        <v>4.82</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>4.99</v>
+      </c>
+      <c r="AA27" s="13">
+        <v>5.13</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>5.25</v>
+      </c>
+      <c r="AC27" s="13">
+        <v>5.36</v>
+      </c>
+      <c r="AD27" s="13">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="3">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="J28" s="12">
+        <v>120</v>
+      </c>
+      <c r="K28" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="L28" s="13">
+        <v>3.36</v>
+      </c>
+      <c r="M28" s="13">
+        <v>3.68</v>
+      </c>
+      <c r="N28" s="13">
+        <v>3.92</v>
+      </c>
+      <c r="O28" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P28" s="13">
+        <v>4.24</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="R28" s="13">
+        <v>4.47</v>
+      </c>
+      <c r="S28" s="13">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="T28"/>
+      <c r="U28" s="12">
+        <v>120</v>
+      </c>
+      <c r="V28" s="13">
+        <v>3.7</v>
+      </c>
+      <c r="W28" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="X28" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="Y28" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>4.87</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>5.01</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>5.12</v>
+      </c>
+      <c r="AC28" s="13">
+        <v>5.21</v>
+      </c>
+      <c r="AD28" s="13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="J29" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="24">
+        <v>2.77</v>
+      </c>
+      <c r="L29" s="24">
+        <v>3.31</v>
+      </c>
+      <c r="M29" s="24">
+        <v>3.63</v>
+      </c>
+      <c r="N29" s="24">
+        <v>3.86</v>
+      </c>
+      <c r="O29" s="24">
+        <v>4.03</v>
+      </c>
+      <c r="P29" s="24">
+        <v>4.17</v>
+      </c>
+      <c r="Q29" s="24">
+        <v>4.29</v>
+      </c>
+      <c r="R29" s="24">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S29" s="24">
+        <v>4.47</v>
+      </c>
+      <c r="T29"/>
+      <c r="U29" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V29" s="24">
+        <v>3.64</v>
+      </c>
+      <c r="W29" s="24">
+        <v>4.12</v>
+      </c>
+      <c r="X29" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y29" s="24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z29" s="24">
+        <v>4.76</v>
+      </c>
+      <c r="AA29" s="24">
+        <v>4.88</v>
+      </c>
+      <c r="AB29" s="24">
+        <v>4.99</v>
+      </c>
+      <c r="AC29" s="24">
+        <v>5.08</v>
+      </c>
+      <c r="AD29" s="24">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+    </row>
+    <row r="31" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+    </row>
+    <row r="32" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+    </row>
+    <row r="33" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+    </row>
+    <row r="34" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+    </row>
+    <row r="35" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="3">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+    </row>
+    <row r="36" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="3">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+    </row>
+    <row r="37" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="3">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+    </row>
+    <row r="38" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="3">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+    </row>
+    <row r="39" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="3">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+    </row>
+    <row r="40" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="3">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+    </row>
+    <row r="41" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="3">
+        <v>39</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+    </row>
+    <row r="42" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="3">
+        <v>40</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+    </row>
+    <row r="43" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="8">
+        <f>AVERAGE(C3:C7)</f>
+        <v>34.6</v>
+      </c>
+      <c r="D43" s="8">
+        <f>AVERAGE(D3:D42)</f>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="E43" s="8">
+        <f>AVERAGE(E3:E42)</f>
+        <v>73.666666666666671</v>
+      </c>
+      <c r="F43" s="8">
+        <f>AVERAGE(F3:F7)</f>
+        <v>27.75</v>
+      </c>
+      <c r="J43" s="18"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+    </row>
+    <row r="44" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="8">
+        <f>VAR(C3:C7)</f>
+        <v>287.29999999999995</v>
+      </c>
+      <c r="D44" s="8">
+        <f>VAR(D3:D42)</f>
+        <v>409.06666666666661</v>
+      </c>
+      <c r="E44" s="8">
+        <f>VAR(E3:E42)</f>
+        <v>79.866666666666418</v>
+      </c>
+      <c r="F44" s="8">
+        <f>VAR(F3:F7)</f>
+        <v>94.916666666666671</v>
+      </c>
+      <c r="G44" s="6">
+        <f>AVERAGE(C44:F44)</f>
+        <v>217.78749999999991</v>
+      </c>
+      <c r="J44" s="18"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
+    </row>
+    <row r="45" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="25">
+        <f>COUNT(C3:C42)</f>
+        <v>5</v>
+      </c>
+      <c r="D45" s="25">
+        <f t="shared" ref="D45:F45" si="0">COUNT(D3:D42)</f>
+        <v>6</v>
+      </c>
+      <c r="E45" s="25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F45" s="25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G45" s="34">
+        <f>SUM(B45:F45)</f>
+        <v>21</v>
+      </c>
+      <c r="J45" s="18"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
+    </row>
+    <row r="46" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J46" s="18"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+    </row>
+    <row r="47" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="16">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="J47" s="18"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+    </row>
+    <row r="48" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="5">
+        <f>ABS(C43-D43)</f>
+        <v>1.0666666666666629</v>
+      </c>
+      <c r="D48" s="17">
+        <f>F47*SQRT(G44*(1/C45+1/D45))</f>
+        <v>35.923466919271576</v>
+      </c>
+      <c r="J48" s="18"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+    </row>
+    <row r="49" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="33">
+        <f>ABS(C43-E43)</f>
+        <v>39.06666666666667</v>
+      </c>
+      <c r="D49" s="17">
+        <f>F47*SQRT(G44*(1/C45+1/E45))</f>
+        <v>35.923466919271576</v>
+      </c>
+      <c r="J49" s="18"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19"/>
+    </row>
+    <row r="50" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="5">
+        <f>ABS(C43-F43)</f>
+        <v>6.8500000000000014</v>
+      </c>
+      <c r="D50" s="17">
+        <f>F47*SQRT(G44*(1/C45+1/F45))</f>
+        <v>39.796857938158873</v>
+      </c>
+      <c r="J50" s="18"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+    </row>
+    <row r="51" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="5">
+        <f>ABS(D43-E43)</f>
+        <v>38.000000000000007</v>
+      </c>
+      <c r="D51" s="17">
+        <f>F47*SQRT(G44*(1/D45+1/E45))</f>
+        <v>34.251681783527061</v>
+      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
+    </row>
+    <row r="52" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="5">
+        <f>ABS(D43-F43)</f>
+        <v>7.9166666666666643</v>
+      </c>
+      <c r="D52" s="17">
+        <f>F47*SQRT(G44*(1/D45+1/F45))</f>
+        <v>38.294544405828866</v>
+      </c>
+      <c r="J52" s="18"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+    </row>
+    <row r="53" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="33">
+        <f>ABS(E43-F43)</f>
+        <v>45.916666666666671</v>
+      </c>
+      <c r="D53" s="17">
+        <f>F47*SQRT(G44*(1/E45+1/F45))</f>
+        <v>38.294544405828866</v>
+      </c>
+      <c r="J53" s="18"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="19"/>
+    </row>
+    <row r="54" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J54" s="18"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="19"/>
+    </row>
+    <row r="55" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J55" s="18"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="19"/>
+      <c r="AA55" s="19"/>
+      <c r="AB55" s="19"/>
+      <c r="AC55" s="19"/>
+      <c r="AD55" s="19"/>
+    </row>
+    <row r="56" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+    </row>
+    <row r="57" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J1:S1"/>
+    <mergeCell ref="U1:AD1"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="V2:AD2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DBE83D-FB9F-4573-B701-68A9D082C389}">
+  <dimension ref="B1:AD59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="2" customWidth="1"/>
+    <col min="3" max="9" width="7" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="7" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="30" width="7" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="10.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1"/>
+      <c r="U1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+    </row>
+    <row r="2" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="30"/>
+      <c r="T2"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="30"/>
+    </row>
+    <row r="3" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4">
+        <v>71</v>
+      </c>
+      <c r="F3" s="4">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4">
+        <v>22</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="12">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12">
+        <v>3</v>
+      </c>
+      <c r="M3" s="12">
+        <v>4</v>
+      </c>
+      <c r="N3" s="12">
+        <v>5</v>
+      </c>
+      <c r="O3" s="12">
+        <v>6</v>
+      </c>
+      <c r="P3" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>8</v>
+      </c>
+      <c r="R3" s="12">
+        <v>9</v>
+      </c>
+      <c r="S3" s="12">
+        <v>10</v>
+      </c>
+      <c r="T3"/>
+      <c r="U3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="12">
+        <v>2</v>
+      </c>
+      <c r="W3" s="12">
+        <v>3</v>
+      </c>
+      <c r="X3" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4">
+        <v>47</v>
+      </c>
+      <c r="E4" s="4">
+        <v>63</v>
+      </c>
+      <c r="F4" s="4">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4">
+        <v>26</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13">
+        <v>17.97</v>
+      </c>
+      <c r="L4" s="13">
+        <v>26.98</v>
+      </c>
+      <c r="M4" s="13">
+        <v>32.82</v>
+      </c>
+      <c r="N4" s="13">
+        <v>37.08</v>
+      </c>
+      <c r="O4" s="13">
+        <v>40.409999999999997</v>
+      </c>
+      <c r="P4" s="13">
+        <v>43.12</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>45.4</v>
+      </c>
+      <c r="R4" s="13">
+        <v>47.36</v>
+      </c>
+      <c r="S4" s="13">
+        <v>49.07</v>
+      </c>
+      <c r="T4"/>
+      <c r="U4" s="12">
+        <v>1</v>
+      </c>
+      <c r="V4" s="13">
+        <v>90.03</v>
+      </c>
+      <c r="W4" s="13">
+        <v>135</v>
+      </c>
+      <c r="X4" s="13">
+        <v>164.3</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>185.6</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>202.2</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>215.8</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>227.2</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>237</v>
+      </c>
+      <c r="AD4" s="13">
+        <v>245.6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4">
+        <v>72</v>
+      </c>
+      <c r="E5" s="4">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4">
+        <v>21</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2</v>
+      </c>
+      <c r="K5" s="13">
+        <v>6.08</v>
+      </c>
+      <c r="L5" s="13">
+        <v>8.33</v>
+      </c>
+      <c r="M5" s="13">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N5" s="13">
+        <v>10.88</v>
+      </c>
+      <c r="O5" s="13">
+        <v>11.74</v>
+      </c>
+      <c r="P5" s="13">
+        <v>12.44</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>13.03</v>
+      </c>
+      <c r="R5" s="13">
+        <v>13.54</v>
+      </c>
+      <c r="S5" s="13">
+        <v>13.99</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5" s="12">
+        <v>2</v>
+      </c>
+      <c r="V5" s="13">
+        <v>14.04</v>
+      </c>
+      <c r="W5" s="13">
+        <v>19.02</v>
+      </c>
+      <c r="X5" s="13">
+        <v>22.29</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>24.72</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>26.63</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>28.2</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>29.53</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>30.68</v>
+      </c>
+      <c r="AD5" s="13">
+        <v>31.69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>48</v>
+      </c>
+      <c r="D6" s="4">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4">
+        <v>74</v>
+      </c>
+      <c r="F6" s="4">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4">
+        <v>42</v>
+      </c>
+      <c r="J6" s="12">
+        <v>3</v>
+      </c>
+      <c r="K6" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="L6" s="13">
+        <v>5.91</v>
+      </c>
+      <c r="M6" s="13">
+        <v>6.82</v>
+      </c>
+      <c r="N6" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="O6" s="13">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="P6" s="13">
+        <v>8.48</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>8.85</v>
+      </c>
+      <c r="R6" s="13">
+        <v>9.18</v>
+      </c>
+      <c r="S6" s="13">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6" s="12">
+        <v>3</v>
+      </c>
+      <c r="V6" s="13">
+        <v>8.26</v>
+      </c>
+      <c r="W6" s="13">
+        <v>10.62</v>
+      </c>
+      <c r="X6" s="13">
+        <v>12.17</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>13.33</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>14.24</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>15.64</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>16.2</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>16.690000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4">
+        <v>68</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="J7" s="12">
+        <v>4</v>
+      </c>
+      <c r="K7" s="13">
+        <v>3.93</v>
+      </c>
+      <c r="L7" s="13">
+        <v>5.04</v>
+      </c>
+      <c r="M7" s="13">
+        <v>5.76</v>
+      </c>
+      <c r="N7" s="13">
+        <v>6.29</v>
+      </c>
+      <c r="O7" s="13">
+        <v>6.71</v>
+      </c>
+      <c r="P7" s="13">
+        <v>7.05</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>7.35</v>
+      </c>
+      <c r="R7" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="S7" s="13">
+        <v>7.83</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7" s="12">
+        <v>4</v>
+      </c>
+      <c r="V7" s="13">
+        <v>6.51</v>
+      </c>
+      <c r="W7" s="13">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="X7" s="13">
+        <v>9.17</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>10.58</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>11.1</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>11.55</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>11.93</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4">
+        <v>77</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="J8" s="12">
+        <v>5</v>
+      </c>
+      <c r="K8" s="13">
+        <v>3.64</v>
+      </c>
+      <c r="L8" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M8" s="13">
+        <v>5.22</v>
+      </c>
+      <c r="N8" s="13">
+        <v>5.67</v>
+      </c>
+      <c r="O8" s="13">
+        <v>6.03</v>
+      </c>
+      <c r="P8" s="13">
+        <v>6.33</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>6.58</v>
+      </c>
+      <c r="R8" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="S8" s="13">
+        <v>6.99</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8" s="12">
+        <v>5</v>
+      </c>
+      <c r="V8" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="W8" s="13">
+        <v>6.98</v>
+      </c>
+      <c r="X8" s="13">
+        <v>7.8</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>8.42</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>8.91</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>9.32</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>9.67</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="J9" s="12">
+        <v>6</v>
+      </c>
+      <c r="K9" s="13">
+        <v>3.46</v>
+      </c>
+      <c r="L9" s="13">
+        <v>4.34</v>
+      </c>
+      <c r="M9" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N9" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="O9" s="13">
+        <v>5.63</v>
+      </c>
+      <c r="P9" s="13">
+        <v>5.9</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>6.12</v>
+      </c>
+      <c r="R9" s="13">
+        <v>6.32</v>
+      </c>
+      <c r="S9" s="13">
+        <v>6.49</v>
+      </c>
+      <c r="T9"/>
+      <c r="U9" s="12">
+        <v>6</v>
+      </c>
+      <c r="V9" s="13">
+        <v>5.24</v>
+      </c>
+      <c r="W9" s="13">
+        <v>6.33</v>
+      </c>
+      <c r="X9" s="13">
+        <v>7.03</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>7.56</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>7.97</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>8.32</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>8.61</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="J10" s="12">
+        <v>7</v>
+      </c>
+      <c r="K10" s="13">
+        <v>3.34</v>
+      </c>
+      <c r="L10" s="13">
+        <v>4.16</v>
+      </c>
+      <c r="M10" s="13">
+        <v>4.68</v>
+      </c>
+      <c r="N10" s="13">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="O10" s="13">
+        <v>5.36</v>
+      </c>
+      <c r="P10" s="13">
+        <v>5.61</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>5.82</v>
+      </c>
+      <c r="R10" s="13">
+        <v>6</v>
+      </c>
+      <c r="S10" s="13">
+        <v>6.16</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10" s="12">
+        <v>7</v>
+      </c>
+      <c r="V10" s="13">
+        <v>4.95</v>
+      </c>
+      <c r="W10" s="13">
+        <v>5.92</v>
+      </c>
+      <c r="X10" s="13">
+        <v>6.54</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>7.01</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>7.37</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>7.68</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>7.94</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>8.17</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>8.3699999999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="J11" s="12">
+        <v>8</v>
+      </c>
+      <c r="K11" s="13">
+        <v>3.26</v>
+      </c>
+      <c r="L11" s="13">
+        <v>4.04</v>
+      </c>
+      <c r="M11" s="13">
+        <v>4.53</v>
+      </c>
+      <c r="N11" s="13">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="O11" s="13">
+        <v>5.17</v>
+      </c>
+      <c r="P11" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="R11" s="13">
+        <v>5.77</v>
+      </c>
+      <c r="S11" s="13">
+        <v>5.92</v>
+      </c>
+      <c r="T11"/>
+      <c r="U11" s="12">
+        <v>8</v>
+      </c>
+      <c r="V11" s="13">
+        <v>4.75</v>
+      </c>
+      <c r="W11" s="13">
+        <v>5.64</v>
+      </c>
+      <c r="X11" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>6.62</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>6.96</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>7.24</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>7.47</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>7.68</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="J12" s="12">
+        <v>9</v>
+      </c>
+      <c r="K12" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="L12" s="13">
+        <v>3.95</v>
+      </c>
+      <c r="M12" s="13">
+        <v>4.41</v>
+      </c>
+      <c r="N12" s="13">
+        <v>4.76</v>
+      </c>
+      <c r="O12" s="13">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="P12" s="13">
+        <v>5.24</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>5.43</v>
+      </c>
+      <c r="R12" s="13">
+        <v>5.59</v>
+      </c>
+      <c r="S12" s="13">
+        <v>5.74</v>
+      </c>
+      <c r="T12"/>
+      <c r="U12" s="12">
+        <v>9</v>
+      </c>
+      <c r="V12" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W12" s="13">
+        <v>5.43</v>
+      </c>
+      <c r="X12" s="13">
+        <v>5.96</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>6.35</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>6.91</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>7.13</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>7.33</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="J13" s="12">
+        <v>10</v>
+      </c>
+      <c r="K13" s="13">
+        <v>3.15</v>
+      </c>
+      <c r="L13" s="13">
+        <v>3.88</v>
+      </c>
+      <c r="M13" s="13">
+        <v>4.33</v>
+      </c>
+      <c r="N13" s="13">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="O13" s="13">
+        <v>4.91</v>
+      </c>
+      <c r="P13" s="13">
+        <v>5.12</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="R13" s="13">
+        <v>5.46</v>
+      </c>
+      <c r="S13" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="T13"/>
+      <c r="U13" s="12">
+        <v>10</v>
+      </c>
+      <c r="V13" s="13">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="W13" s="13">
+        <v>5.27</v>
+      </c>
+      <c r="X13" s="13">
+        <v>5.77</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>6.14</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>6.43</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>6.67</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>6.87</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>7.05</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="J14" s="12">
+        <v>11</v>
+      </c>
+      <c r="K14" s="13">
+        <v>3.11</v>
+      </c>
+      <c r="L14" s="13">
+        <v>3.82</v>
+      </c>
+      <c r="M14" s="13">
+        <v>4.26</v>
+      </c>
+      <c r="N14" s="13">
+        <v>4.57</v>
+      </c>
+      <c r="O14" s="13">
+        <v>4.82</v>
+      </c>
+      <c r="P14" s="13">
+        <v>5.03</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="R14" s="13">
+        <v>5.35</v>
+      </c>
+      <c r="S14" s="13">
+        <v>5.49</v>
+      </c>
+      <c r="T14"/>
+      <c r="U14" s="12">
+        <v>11</v>
+      </c>
+      <c r="V14" s="13">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="W14" s="13">
+        <v>5.15</v>
+      </c>
+      <c r="X14" s="13">
+        <v>5.62</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>5.97</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>6.25</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>6.48</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>6.67</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>6.84</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="J15" s="12">
+        <v>12</v>
+      </c>
+      <c r="K15" s="13">
+        <v>3.08</v>
+      </c>
+      <c r="L15" s="13">
+        <v>3.77</v>
+      </c>
+      <c r="M15" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="N15" s="13">
+        <v>4.51</v>
+      </c>
+      <c r="O15" s="13">
+        <v>4.75</v>
+      </c>
+      <c r="P15" s="13">
+        <v>4.95</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>5.12</v>
+      </c>
+      <c r="R15" s="13">
+        <v>5.27</v>
+      </c>
+      <c r="S15" s="13">
+        <v>5.39</v>
+      </c>
+      <c r="T15"/>
+      <c r="U15" s="12">
+        <v>12</v>
+      </c>
+      <c r="V15" s="13">
+        <v>4.32</v>
+      </c>
+      <c r="W15" s="13">
+        <v>5.05</v>
+      </c>
+      <c r="X15" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>5.84</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>6.32</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>6.51</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>6.67</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="J16" s="12">
+        <v>13</v>
+      </c>
+      <c r="K16" s="13">
+        <v>3.06</v>
+      </c>
+      <c r="L16" s="13">
+        <v>3.73</v>
+      </c>
+      <c r="M16" s="13">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N16" s="13">
+        <v>4.45</v>
+      </c>
+      <c r="O16" s="13">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="P16" s="13">
+        <v>4.88</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>5.05</v>
+      </c>
+      <c r="R16" s="13">
+        <v>5.19</v>
+      </c>
+      <c r="S16" s="13">
+        <v>5.32</v>
+      </c>
+      <c r="T16" s="14"/>
+      <c r="U16" s="12">
+        <v>13</v>
+      </c>
+      <c r="V16" s="13">
+        <v>4.26</v>
+      </c>
+      <c r="W16" s="13">
+        <v>4.96</v>
+      </c>
+      <c r="X16" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>5.73</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>5.98</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>6.19</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>6.37</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>6.53</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="J17" s="12">
+        <v>14</v>
+      </c>
+      <c r="K17" s="13">
+        <v>3.03</v>
+      </c>
+      <c r="L17" s="13">
+        <v>3.7</v>
+      </c>
+      <c r="M17" s="13">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="N17" s="13">
+        <v>4.41</v>
+      </c>
+      <c r="O17" s="13">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="P17" s="13">
+        <v>4.83</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>4.99</v>
+      </c>
+      <c r="R17" s="13">
+        <v>5.13</v>
+      </c>
+      <c r="S17" s="13">
+        <v>5.25</v>
+      </c>
+      <c r="T17" s="14"/>
+      <c r="U17" s="12">
+        <v>14</v>
+      </c>
+      <c r="V17" s="13">
+        <v>4.21</v>
+      </c>
+      <c r="W17" s="13">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="X17" s="13">
+        <v>5.32</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>5.63</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>5.88</v>
+      </c>
+      <c r="AA17" s="13">
+        <v>6.08</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>6.26</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>6.41</v>
+      </c>
+      <c r="AD17" s="13">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="J18" s="12">
+        <v>15</v>
+      </c>
+      <c r="K18" s="13">
+        <v>3.01</v>
+      </c>
+      <c r="L18" s="13">
+        <v>3.67</v>
+      </c>
+      <c r="M18" s="13">
+        <v>4.08</v>
+      </c>
+      <c r="N18" s="13">
+        <v>4.37</v>
+      </c>
+      <c r="O18" s="13">
+        <v>4.59</v>
+      </c>
+      <c r="P18" s="13">
+        <v>4.78</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="R18" s="13">
+        <v>5.08</v>
+      </c>
+      <c r="S18" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="T18" s="14"/>
+      <c r="U18" s="12">
+        <v>15</v>
+      </c>
+      <c r="V18" s="13">
+        <v>4.17</v>
+      </c>
+      <c r="W18" s="13">
+        <v>4.84</v>
+      </c>
+      <c r="X18" s="13">
+        <v>5.25</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>5.56</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>5.99</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>6.16</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>6.31</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="J19" s="12">
+        <v>16</v>
+      </c>
+      <c r="K19" s="13">
+        <v>3</v>
+      </c>
+      <c r="L19" s="13">
+        <v>3.65</v>
+      </c>
+      <c r="M19" s="13">
+        <v>4.05</v>
+      </c>
+      <c r="N19" s="13">
+        <v>4.33</v>
+      </c>
+      <c r="O19" s="13">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="P19" s="13">
+        <v>4.74</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R19" s="13">
+        <v>5.03</v>
+      </c>
+      <c r="S19" s="13">
+        <v>5.15</v>
+      </c>
+      <c r="T19" s="14"/>
+      <c r="U19" s="12">
+        <v>16</v>
+      </c>
+      <c r="V19" s="13">
+        <v>4.13</v>
+      </c>
+      <c r="W19" s="13">
+        <v>4.79</v>
+      </c>
+      <c r="X19" s="13">
+        <v>5.19</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>5.49</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>5.72</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>5.92</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>6.08</v>
+      </c>
+      <c r="AC19" s="13">
+        <v>6.22</v>
+      </c>
+      <c r="AD19" s="13">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="J20" s="12">
+        <v>17</v>
+      </c>
+      <c r="K20" s="13">
+        <v>2.98</v>
+      </c>
+      <c r="L20" s="13">
+        <v>3.63</v>
+      </c>
+      <c r="M20" s="13">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="N20" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="O20" s="13">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="P20" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="R20" s="13">
+        <v>4.99</v>
+      </c>
+      <c r="S20" s="13">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="T20" s="14"/>
+      <c r="U20" s="12">
+        <v>17</v>
+      </c>
+      <c r="V20" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W20" s="13">
+        <v>4.74</v>
+      </c>
+      <c r="X20" s="13">
+        <v>5.14</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>5.43</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>5.66</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>5.85</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>6.01</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>6.15</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="J21" s="12">
+        <v>18</v>
+      </c>
+      <c r="K21" s="13">
+        <v>2.97</v>
+      </c>
+      <c r="L21" s="13">
+        <v>3.61</v>
+      </c>
+      <c r="M21" s="13">
+        <v>4</v>
+      </c>
+      <c r="N21" s="13">
+        <v>4.28</v>
+      </c>
+      <c r="O21" s="13">
+        <v>4.49</v>
+      </c>
+      <c r="P21" s="13">
+        <v>4.67</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>4.82</v>
+      </c>
+      <c r="R21" s="13">
+        <v>4.96</v>
+      </c>
+      <c r="S21" s="13">
+        <v>5.07</v>
+      </c>
+      <c r="T21" s="14"/>
+      <c r="U21" s="12">
+        <v>18</v>
+      </c>
+      <c r="V21" s="13">
+        <v>4.07</v>
+      </c>
+      <c r="W21" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="X21" s="13">
+        <v>5.09</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>5.38</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>5.79</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>5.94</v>
+      </c>
+      <c r="AC21" s="13">
+        <v>6.08</v>
+      </c>
+      <c r="AD21" s="13">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="J22" s="12">
+        <v>19</v>
+      </c>
+      <c r="K22" s="13">
+        <v>2.96</v>
+      </c>
+      <c r="L22" s="13">
+        <v>3.59</v>
+      </c>
+      <c r="M22" s="13">
+        <v>3.98</v>
+      </c>
+      <c r="N22" s="13">
+        <v>4.25</v>
+      </c>
+      <c r="O22" s="13">
+        <v>4.47</v>
+      </c>
+      <c r="P22" s="13">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>4.79</v>
+      </c>
+      <c r="R22" s="13">
+        <v>4.92</v>
+      </c>
+      <c r="S22" s="13">
+        <v>5.04</v>
+      </c>
+      <c r="T22"/>
+      <c r="U22" s="12">
+        <v>19</v>
+      </c>
+      <c r="V22" s="13">
+        <v>4.05</v>
+      </c>
+      <c r="W22" s="13">
+        <v>4.67</v>
+      </c>
+      <c r="X22" s="13">
+        <v>5.05</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>5.33</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>5.55</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>5.73</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>5.89</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>6.02</v>
+      </c>
+      <c r="AD22" s="13">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="J23" s="12">
+        <v>20</v>
+      </c>
+      <c r="K23" s="13">
+        <v>2.95</v>
+      </c>
+      <c r="L23" s="13">
+        <v>3.58</v>
+      </c>
+      <c r="M23" s="13">
+        <v>3.96</v>
+      </c>
+      <c r="N23" s="13">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="O23" s="13">
+        <v>4.45</v>
+      </c>
+      <c r="P23" s="13">
+        <v>4.62</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="R23" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S23" s="13">
+        <v>5.01</v>
+      </c>
+      <c r="T23"/>
+      <c r="U23" s="12">
+        <v>20</v>
+      </c>
+      <c r="V23" s="13">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="W23" s="13">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="X23" s="13">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>5.29</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>5.51</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>5.69</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>5.84</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>5.97</v>
+      </c>
+      <c r="AD23" s="13">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="3">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="J24" s="12">
+        <v>24</v>
+      </c>
+      <c r="K24" s="13">
+        <v>2.92</v>
+      </c>
+      <c r="L24" s="13">
+        <v>3.53</v>
+      </c>
+      <c r="M24" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="N24" s="13">
+        <v>4.17</v>
+      </c>
+      <c r="O24" s="13">
+        <v>4.37</v>
+      </c>
+      <c r="P24" s="13">
+        <v>4.54</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>4.68</v>
+      </c>
+      <c r="R24" s="13">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="S24" s="13">
+        <v>4.92</v>
+      </c>
+      <c r="T24"/>
+      <c r="U24" s="12">
+        <v>24</v>
+      </c>
+      <c r="V24" s="13">
+        <v>3.96</v>
+      </c>
+      <c r="W24" s="13">
+        <v>4.55</v>
+      </c>
+      <c r="X24" s="13">
+        <v>4.91</v>
+      </c>
+      <c r="Y24" s="13">
+        <v>5.17</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>5.37</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>5.54</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>5.69</v>
+      </c>
+      <c r="AC24" s="13">
+        <v>5.81</v>
+      </c>
+      <c r="AD24" s="13">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="J25" s="12">
+        <v>30</v>
+      </c>
+      <c r="K25" s="13">
+        <v>2.89</v>
+      </c>
+      <c r="L25" s="13">
+        <v>3.49</v>
+      </c>
+      <c r="M25" s="13">
+        <v>3.85</v>
+      </c>
+      <c r="N25" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O25" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="P25" s="13">
+        <v>4.46</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R25" s="13">
+        <v>4.72</v>
+      </c>
+      <c r="S25" s="13">
+        <v>4.82</v>
+      </c>
+      <c r="T25"/>
+      <c r="U25" s="12">
+        <v>30</v>
+      </c>
+      <c r="V25" s="13">
+        <v>3.89</v>
+      </c>
+      <c r="W25" s="13">
+        <v>4.45</v>
+      </c>
+      <c r="X25" s="13">
+        <v>4.8</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>5.05</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>5.24</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>5.54</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>5.65</v>
+      </c>
+      <c r="AD25" s="13">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="3">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="J26" s="12">
+        <v>40</v>
+      </c>
+      <c r="K26" s="13">
+        <v>2.86</v>
+      </c>
+      <c r="L26" s="13">
+        <v>3.44</v>
+      </c>
+      <c r="M26" s="13">
+        <v>3.79</v>
+      </c>
+      <c r="N26" s="13">
+        <v>4.04</v>
+      </c>
+      <c r="O26" s="13">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="P26" s="13">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="R26" s="13">
+        <v>4.63</v>
+      </c>
+      <c r="S26" s="13">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="T26"/>
+      <c r="U26" s="12">
+        <v>40</v>
+      </c>
+      <c r="V26" s="13">
+        <v>3.82</v>
+      </c>
+      <c r="W26" s="13">
+        <v>4.37</v>
+      </c>
+      <c r="X26" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>4.93</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>5.26</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>5.39</v>
+      </c>
+      <c r="AC26" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="AD26" s="13">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="3">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="J27" s="12">
+        <v>60</v>
+      </c>
+      <c r="K27" s="13">
+        <v>2.83</v>
+      </c>
+      <c r="L27" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="M27" s="13">
+        <v>3.74</v>
+      </c>
+      <c r="N27" s="13">
+        <v>3.98</v>
+      </c>
+      <c r="O27" s="13">
+        <v>4.16</v>
+      </c>
+      <c r="P27" s="13">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="R27" s="13">
+        <v>4.55</v>
+      </c>
+      <c r="S27" s="13">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="T27"/>
+      <c r="U27" s="12">
+        <v>60</v>
+      </c>
+      <c r="V27" s="13">
+        <v>3.76</v>
+      </c>
+      <c r="W27" s="13">
+        <v>4.28</v>
+      </c>
+      <c r="X27" s="13">
+        <v>4.59</v>
+      </c>
+      <c r="Y27" s="13">
+        <v>4.82</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>4.99</v>
+      </c>
+      <c r="AA27" s="13">
+        <v>5.13</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>5.25</v>
+      </c>
+      <c r="AC27" s="13">
+        <v>5.36</v>
+      </c>
+      <c r="AD27" s="13">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="3">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="J28" s="12">
+        <v>120</v>
+      </c>
+      <c r="K28" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="L28" s="13">
+        <v>3.36</v>
+      </c>
+      <c r="M28" s="13">
+        <v>3.68</v>
+      </c>
+      <c r="N28" s="13">
+        <v>3.92</v>
+      </c>
+      <c r="O28" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P28" s="13">
+        <v>4.24</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="R28" s="13">
+        <v>4.47</v>
+      </c>
+      <c r="S28" s="13">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="T28"/>
+      <c r="U28" s="12">
+        <v>120</v>
+      </c>
+      <c r="V28" s="13">
+        <v>3.7</v>
+      </c>
+      <c r="W28" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="X28" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="Y28" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>4.87</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>5.01</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>5.12</v>
+      </c>
+      <c r="AC28" s="13">
+        <v>5.21</v>
+      </c>
+      <c r="AD28" s="13">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="J29" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="24">
+        <v>2.77</v>
+      </c>
+      <c r="L29" s="24">
+        <v>3.31</v>
+      </c>
+      <c r="M29" s="24">
+        <v>3.63</v>
+      </c>
+      <c r="N29" s="24">
+        <v>3.86</v>
+      </c>
+      <c r="O29" s="24">
+        <v>4.03</v>
+      </c>
+      <c r="P29" s="24">
+        <v>4.17</v>
+      </c>
+      <c r="Q29" s="24">
+        <v>4.29</v>
+      </c>
+      <c r="R29" s="24">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="S29" s="24">
+        <v>4.47</v>
+      </c>
+      <c r="T29"/>
+      <c r="U29" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V29" s="24">
+        <v>3.64</v>
+      </c>
+      <c r="W29" s="24">
+        <v>4.12</v>
+      </c>
+      <c r="X29" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y29" s="24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z29" s="24">
+        <v>4.76</v>
+      </c>
+      <c r="AA29" s="24">
+        <v>4.88</v>
+      </c>
+      <c r="AB29" s="24">
+        <v>4.99</v>
+      </c>
+      <c r="AC29" s="24">
+        <v>5.08</v>
+      </c>
+      <c r="AD29" s="24">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+    </row>
+    <row r="31" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+    </row>
+    <row r="32" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+    </row>
+    <row r="33" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+    </row>
+    <row r="34" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+    </row>
+    <row r="35" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="3">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+    </row>
+    <row r="36" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="3">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+    </row>
+    <row r="37" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="3">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+    </row>
+    <row r="38" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="3">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+    </row>
+    <row r="39" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="3">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+    </row>
+    <row r="40" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="3">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+    </row>
+    <row r="41" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="3">
+        <v>39</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+    </row>
+    <row r="42" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="3">
+        <v>40</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+    </row>
+    <row r="43" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="8">
+        <f>AVERAGE(C3:C7)</f>
+        <v>34.6</v>
+      </c>
+      <c r="D43" s="8">
+        <f>AVERAGE(D3:D42)</f>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="E43" s="8">
+        <f>AVERAGE(E3:E42)</f>
+        <v>73.666666666666671</v>
+      </c>
+      <c r="F43" s="8">
+        <f>AVERAGE(F3:F7)</f>
+        <v>27.75</v>
+      </c>
+      <c r="G43" s="8">
+        <f>AVERAGE(G3:G7)</f>
+        <v>27.75</v>
+      </c>
+      <c r="J43" s="18"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+    </row>
+    <row r="44" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="8">
+        <f>VAR(C3:C7)</f>
+        <v>287.29999999999995</v>
+      </c>
+      <c r="D44" s="8">
+        <f>VAR(D3:D42)</f>
+        <v>409.06666666666661</v>
+      </c>
+      <c r="E44" s="8">
+        <f>VAR(E3:E42)</f>
+        <v>79.866666666666418</v>
+      </c>
+      <c r="F44" s="8">
+        <f>VAR(F3:F7)</f>
+        <v>94.916666666666671</v>
+      </c>
+      <c r="G44" s="8">
+        <f>VAR(G3:G7)</f>
+        <v>94.916666666666671</v>
+      </c>
+      <c r="H44" s="6">
+        <f>AVERAGE(C44:G44)</f>
+        <v>193.21333333333325</v>
+      </c>
+      <c r="J44" s="18"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
+    </row>
+    <row r="45" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="25">
+        <f>COUNT(C3:C42)</f>
+        <v>5</v>
+      </c>
+      <c r="D45" s="25">
+        <f>COUNT(D3:D42)</f>
+        <v>6</v>
+      </c>
+      <c r="E45" s="25">
+        <f>COUNT(E3:E42)</f>
+        <v>6</v>
+      </c>
+      <c r="F45" s="25">
+        <f>COUNT(F3:F42)</f>
+        <v>4</v>
+      </c>
+      <c r="G45" s="25">
+        <f>COUNT(G3:G42)</f>
+        <v>4</v>
+      </c>
+      <c r="H45" s="34">
+        <f>SUM(C45:G45)</f>
+        <v>25</v>
+      </c>
+      <c r="J45" s="18"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
+    </row>
+    <row r="46" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J46" s="18"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+    </row>
+    <row r="47" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="16">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="J47" s="18"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+    </row>
+    <row r="48" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="5">
+        <f>ABS(C43-D43)</f>
+        <v>1.0666666666666629</v>
+      </c>
+      <c r="D48" s="17">
+        <f>F47*SQRT(H44*(1/C45+1/D45))</f>
+        <v>35.603658694016261</v>
+      </c>
+      <c r="J48" s="18"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+    </row>
+    <row r="49" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="33">
+        <f>ABS(C43-E43)</f>
+        <v>39.06666666666667</v>
+      </c>
+      <c r="D49" s="17">
+        <f>F47*SQRT(H44*(1/C45+1/E45))</f>
+        <v>35.603658694016261</v>
+      </c>
+      <c r="J49" s="18"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19"/>
+    </row>
+    <row r="50" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="5">
+        <f>ABS(C43-F43)</f>
+        <v>6.8500000000000014</v>
+      </c>
+      <c r="D50" s="17">
+        <f>F47*SQRT(H44*(1/C45+1/F45))</f>
+        <v>39.442566896691702</v>
+      </c>
+      <c r="J50" s="18"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+    </row>
+    <row r="51" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="5">
+        <f>ABS(C43-G43)</f>
+        <v>6.8500000000000014</v>
+      </c>
+      <c r="D51" s="17">
+        <f>F47*SQRT(H44*(1/C45+1/G45))</f>
+        <v>39.442566896691702</v>
+      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
+    </row>
+    <row r="52" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="5">
+        <f>ABS(D43-E43)</f>
+        <v>38.000000000000007</v>
+      </c>
+      <c r="D52" s="17">
+        <f>F47*SQRT(H44*(1/D45+1/E45))</f>
+        <v>33.946756605013086</v>
+      </c>
+      <c r="J52" s="18"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+    </row>
+    <row r="53" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="5">
+        <f>ABS(D43-F43)</f>
+        <v>7.9166666666666643</v>
+      </c>
+      <c r="D53" s="17">
+        <f>F47*SQRT(H44*(1/D45+1/F45))</f>
+        <v>37.953627692224622</v>
+      </c>
+      <c r="J53" s="18"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="19"/>
+    </row>
+    <row r="54" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="5">
+        <f>ABS(D43-G43)</f>
+        <v>7.9166666666666643</v>
+      </c>
+      <c r="D54" s="17">
+        <f>F47*SQRT(H44*(1/D45+1/G45))</f>
+        <v>37.953627692224622</v>
+      </c>
+      <c r="J54" s="18"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="19"/>
+    </row>
+    <row r="55" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="33">
+        <f>ABS(E43-F43)</f>
+        <v>45.916666666666671</v>
+      </c>
+      <c r="D55" s="17">
+        <f>F47*SQRT(H44*(1/E45+1/F45))</f>
+        <v>37.953627692224622</v>
+      </c>
+      <c r="J55" s="18"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="19"/>
+      <c r="AA55" s="19"/>
+      <c r="AB55" s="19"/>
+      <c r="AC55" s="19"/>
+      <c r="AD55" s="19"/>
+    </row>
+    <row r="56" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="33">
+        <f>ABS(E43-G43)</f>
+        <v>45.916666666666671</v>
+      </c>
+      <c r="D56" s="17">
+        <f>F47*SQRT(H44*(1/E45+1/G45))</f>
+        <v>37.953627692224622</v>
+      </c>
+      <c r="J56" s="18"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
+    </row>
+    <row r="57" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="33">
+        <f>ABS(F43-G43)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="17">
+        <f>F47*SQRT(H44*(1/F45+1/G45))</f>
+        <v>41.576116052368334</v>
+      </c>
+      <c r="J57" s="18"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19"/>
+      <c r="AA57" s="19"/>
+      <c r="AB57" s="19"/>
+      <c r="AC57" s="19"/>
+      <c r="AD57" s="19"/>
+    </row>
+    <row r="58" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="22"/>
+      <c r="AD58" s="22"/>
+    </row>
+    <row r="59" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J1:S1"/>
+    <mergeCell ref="U1:AD1"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="V2:AD2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66506168-A227-420F-BBB7-1276F2BF25E6}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <f>B6+B7</f>
+        <v>3.5527272727272727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="35">
+        <f>(1/B3-1/B4)/(1/B2-1/B4)*C2</f>
+        <v>1.6272727272727279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="35">
+        <f>(1/B2-1/B3)/(1/B2-1/B4)*C4</f>
+        <v>1.9254545454545449</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>